--- a/data/output/tables/pib_componentes.xlsx
+++ b/data/output/tables/pib_componentes.xlsx
@@ -1,87 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>consumo_privado</t>
-  </si>
-  <si>
-    <t>inversiones</t>
-  </si>
-  <si>
-    <t>gasto_publico</t>
-  </si>
-  <si>
-    <t>exportaciones</t>
-  </si>
-  <si>
-    <t>importaciones</t>
-  </si>
-  <si>
-    <t>variacion</t>
-  </si>
-  <si>
-    <t>pib</t>
-  </si>
-  <si>
-    <t>pib_calc</t>
-  </si>
-  <si>
-    <t>pib_dif</t>
-  </si>
-  <si>
-    <t>pib_per_dif</t>
-  </si>
-  <si>
-    <t>pib_pct_change</t>
-  </si>
-  <si>
-    <t>pib_calc_pct_change</t>
-  </si>
-  <si>
-    <t>fa</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -96,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -415,336 +426,358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>fa</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>consumo_privado</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>inversiones</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>gasto_publico</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exportaciones</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>importaciones</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>variacion</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pib</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pib_calc</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>pib_dif</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>pib_per_dif</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>pib_pct_change</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>pib_calc_pct_change</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2">
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="B2">
-        <v>21624.36529094349</v>
-      </c>
-      <c r="C2">
-        <v>31954.16796875</v>
-      </c>
-      <c r="D2">
-        <v>171709.8999700074</v>
-      </c>
-      <c r="E2">
-        <v>34974.359375</v>
-      </c>
-      <c r="F2">
-        <v>68285.0546875</v>
-      </c>
-      <c r="G2">
-        <v>-532.1901096887078</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>174519.3831821379</v>
+      </c>
+      <c r="E2" t="n">
+        <v>34988.91796875</v>
+      </c>
+      <c r="F2" t="n">
+        <v>68475.109375</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-34.85344466089452</v>
+      </c>
+      <c r="H2" t="n">
         <v>196342.55</v>
       </c>
-      <c r="I2">
-        <v>191445.5478075122</v>
-      </c>
-      <c r="J2">
-        <v>4897.002192487795</v>
-      </c>
-      <c r="K2">
-        <v>2.494111537457263</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45016</v>
       </c>
-      <c r="B3">
-        <v>21050.18716699174</v>
-      </c>
-      <c r="C3">
-        <v>31954.162109375</v>
-      </c>
-      <c r="D3">
-        <v>169213.5595306227</v>
-      </c>
-      <c r="E3">
-        <v>34974.359375</v>
-      </c>
-      <c r="F3">
-        <v>68285.0546875</v>
-      </c>
-      <c r="G3">
-        <v>4568.952902405586</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="n">
+        <v>22896.25319999996</v>
+      </c>
+      <c r="C3" t="n">
+        <v>31760.74690414173</v>
+      </c>
+      <c r="D3" t="n">
+        <v>172273.6505372123</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34983.72265625</v>
+      </c>
+      <c r="F3" t="n">
+        <v>68475.109375</v>
+      </c>
+      <c r="G3" t="n">
+        <v>989.2614185798475</v>
+      </c>
+      <c r="H3" t="n">
         <v>200812.4</v>
       </c>
-      <c r="I3">
-        <v>193476.166396895</v>
-      </c>
-      <c r="J3">
-        <v>7336.233603104978</v>
-      </c>
-      <c r="K3">
-        <v>3.6532771896083</v>
-      </c>
-      <c r="L3">
+      <c r="I3" t="n">
+        <v>194428.5253411838</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6383.874658816174</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.179024133378304</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.276556966383492</v>
       </c>
-      <c r="M3">
-        <v>1.060676841346297</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="B4">
-        <v>23211.47057721232</v>
-      </c>
-      <c r="C4">
-        <v>31954.16796875</v>
-      </c>
-      <c r="D4">
-        <v>172418.9908996065</v>
-      </c>
-      <c r="E4">
-        <v>36092.75</v>
-      </c>
-      <c r="F4">
-        <v>68285.0546875</v>
-      </c>
-      <c r="G4">
-        <v>26.35524456149005</v>
-      </c>
-      <c r="H4">
+      <c r="B4" t="n">
+        <v>22564.97169999995</v>
+      </c>
+      <c r="C4" t="n">
+        <v>32258.02771795394</v>
+      </c>
+      <c r="D4" t="n">
+        <v>179065.5350782446</v>
+      </c>
+      <c r="E4" t="n">
+        <v>34958.0625</v>
+      </c>
+      <c r="F4" t="n">
+        <v>68475.109375</v>
+      </c>
+      <c r="G4" t="n">
+        <v>199.3866436327563</v>
+      </c>
+      <c r="H4" t="n">
         <v>200847.42</v>
       </c>
-      <c r="I4">
-        <v>195418.6800026303</v>
-      </c>
-      <c r="J4">
-        <v>5428.739997369761</v>
-      </c>
-      <c r="K4">
-        <v>2.702917467085094</v>
-      </c>
-      <c r="L4">
+      <c r="I4" t="n">
+        <v>200570.8742648313</v>
+      </c>
+      <c r="J4" t="n">
+        <v>276.5457351687364</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1376894635583252</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.01743916212346708</v>
       </c>
-      <c r="M4">
-        <v>1.004006664960677</v>
+      <c r="M4" t="n">
+        <v>3.159180944703888</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45199</v>
       </c>
-      <c r="B5">
-        <v>23397.18550472394</v>
-      </c>
-      <c r="C5">
-        <v>31954.119140625</v>
-      </c>
-      <c r="D5">
-        <v>177977.1007261531</v>
-      </c>
-      <c r="E5">
-        <v>36092.75</v>
-      </c>
-      <c r="F5">
-        <v>68264.671875</v>
-      </c>
-      <c r="G5">
-        <v>-155.5305728930464</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="n">
+        <v>23076.73949999996</v>
+      </c>
+      <c r="C5" t="n">
+        <v>32772.06339788926</v>
+      </c>
+      <c r="D5" t="n">
+        <v>184738.544669773</v>
+      </c>
+      <c r="E5" t="n">
+        <v>34710.375</v>
+      </c>
+      <c r="F5" t="n">
+        <v>68475.109375</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-87.17837029581527</v>
+      </c>
+      <c r="H5" t="n">
         <v>203697.61</v>
       </c>
-      <c r="I5">
-        <v>201000.952923609</v>
-      </c>
-      <c r="J5">
-        <v>2696.657076390984</v>
-      </c>
-      <c r="K5">
-        <v>1.323853076327692</v>
-      </c>
-      <c r="L5">
+      <c r="I5" t="n">
+        <v>206735.4348223664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-3037.824822366441</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1.491340434660201</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.419082206781641</v>
       </c>
-      <c r="M5">
-        <v>2.856570784790691</v>
+      <c r="M5" t="n">
+        <v>3.073507347530202</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45291</v>
       </c>
-      <c r="B6">
-        <v>23404.95308886089</v>
-      </c>
-      <c r="C6">
-        <v>31954.07421875</v>
-      </c>
-      <c r="D6">
-        <v>176835.1143191989</v>
-      </c>
-      <c r="E6">
-        <v>36092.75</v>
-      </c>
-      <c r="F6">
-        <v>68264.671875</v>
-      </c>
-      <c r="G6">
-        <v>-804.569713549319</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="n">
+        <v>23002.79747499995</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33334.29282539665</v>
+      </c>
+      <c r="D6" t="n">
+        <v>183341.1269387082</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34692.16015625</v>
+      </c>
+      <c r="F6" t="n">
+        <v>68475.109375</v>
+      </c>
+      <c r="G6" t="n">
+        <v>169.5373767099568</v>
+      </c>
+      <c r="H6" t="n">
         <v>212696.62</v>
       </c>
-      <c r="I6">
-        <v>199217.6500382605</v>
-      </c>
-      <c r="J6">
-        <v>13478.96996173952</v>
-      </c>
-      <c r="K6">
-        <v>6.337181080611212</v>
-      </c>
-      <c r="L6">
+      <c r="I6" t="n">
+        <v>206064.8053970647</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6631.81460293525</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.117968965813961</v>
+      </c>
+      <c r="L6" t="n">
         <v>4.417827975497612</v>
       </c>
-      <c r="M6">
-        <v>-0.8872111596537002</v>
+      <c r="M6" t="n">
+        <v>-0.3243901684672035</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45382</v>
       </c>
-      <c r="B7">
-        <v>22700.67070729721</v>
-      </c>
-      <c r="C7">
-        <v>31954.068359375</v>
-      </c>
-      <c r="D7">
-        <v>160264.3188418842</v>
-      </c>
-      <c r="E7">
-        <v>36092.75</v>
-      </c>
-      <c r="F7">
-        <v>68264.671875</v>
-      </c>
-      <c r="G7">
-        <v>2040.652843892101</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="n">
+        <v>22295.87597499996</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33522.81934132759</v>
+      </c>
+      <c r="D7" t="n">
+        <v>184311.2956594777</v>
+      </c>
+      <c r="E7" t="n">
+        <v>34723.28125</v>
+      </c>
+      <c r="F7" t="n">
+        <v>68475.109375</v>
+      </c>
+      <c r="G7" t="n">
+        <v>634.0430841702744</v>
+      </c>
+      <c r="H7" t="n">
         <v>215046.12</v>
       </c>
-      <c r="I7">
-        <v>184787.7888774485</v>
-      </c>
-      <c r="J7">
-        <v>30258.33112255146</v>
-      </c>
-      <c r="K7">
-        <v>14.07062407010713</v>
-      </c>
-      <c r="L7">
+      <c r="I7" t="n">
+        <v>207012.2059349755</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8033.914065024466</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.735902821694466</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.104624981816826</v>
       </c>
-      <c r="M7">
-        <v>-7.243264418609819</v>
+      <c r="M7" t="n">
+        <v>0.4597585386234337</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45473</v>
       </c>
-      <c r="B8">
-        <v>24534.96494418345</v>
-      </c>
-      <c r="C8">
-        <v>31954.068359375</v>
-      </c>
-      <c r="D8">
-        <v>161828.2559119157</v>
-      </c>
-      <c r="E8">
-        <v>36092.75</v>
-      </c>
-      <c r="F8">
-        <v>68264.671875</v>
-      </c>
-      <c r="G8">
-        <v>-86.11926203032328</v>
-      </c>
-      <c r="H8">
+      <c r="B8" t="n">
+        <v>22233.39607499996</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33773.75764673101</v>
+      </c>
+      <c r="D8" t="n">
+        <v>184886.9138254827</v>
+      </c>
+      <c r="E8" t="n">
+        <v>36375.9609375</v>
+      </c>
+      <c r="F8" t="n">
+        <v>68475.109375</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1122.774828374219</v>
+      </c>
+      <c r="H8" t="n">
         <v>214009.32</v>
       </c>
-      <c r="I8">
-        <v>186059.2480784438</v>
-      </c>
-      <c r="J8">
-        <v>27950.07192155617</v>
-      </c>
-      <c r="K8">
-        <v>13.06021248119295</v>
-      </c>
-      <c r="L8">
+      <c r="I8" t="n">
+        <v>209917.6939380879</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4091.626061912102</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.911891529729687</v>
+      </c>
+      <c r="L8" t="n">
         <v>-0.4821291358337421</v>
       </c>
-      <c r="M8">
-        <v>0.6880645137425923</v>
+      <c r="M8" t="n">
+        <v>1.403534632168024</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>